--- a/Output_testing/R1_201907/Country/HKD/MN/EGYPT_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/EGYPT_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>3069.819832</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>73.02866110568988</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>3296.047235</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>76.93592940050031</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>5977.771105</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>85.62492697260863</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>3373.524429</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>82.26058678380099</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>15.00622239157512</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>46.8961</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1.115622278017306</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>109.016009</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>2.544638281540982</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>104.659892</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>1.499136626687734</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>135.183714</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>3.296342407263929</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>39.97388634097212</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>263.630433</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.271565955764951</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>212.40958</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>4.958038306410959</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>224.551629</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>3.216452503278863</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>126.136778</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.075740399002766</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-10.40079238011373</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>79.28164099999999</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.886049478258751</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>34.255562</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.7995891174194478</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>44.329943</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.6349771621231896</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>60.022178</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.463590878393414</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>183.2706616197048</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>44.008887</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.046937693495753</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>60.09977</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.402841443716843</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>46.685072</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.6687117673956129</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>39.202139</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.9559115474601856</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>60.489163110238</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>34.412481</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.8186465494027702</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>49.000981</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.143774875171429</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>45.090367</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.6458693907355828</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>32.744262</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.7984415890893543</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>29.26171403198421</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>44.222144</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.052010914086445</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>36.166907</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.8442034974618502</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>41.440421</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.5935879710869519</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>29.582443</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.721343263075077</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>23.78305426074585</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>12.704792</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.3022372647784366</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>17.257397</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.4028200394489814</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>11.730902</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.1680321326175684</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>21.5976</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.5266395090692909</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>183.5669278529511</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>3.287054</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.07819649547501598</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.900379</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.06770029009571937</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>8.264424999999999</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.1183787024738548</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>21.071613</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.5138137536401308</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>341.4301031028045</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>20.141274</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.4791454722684985</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>27.326992</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.6378632881576519</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>31.307808</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.4484495519459091</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>18.508869</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4513233731334879</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>9.954352195033266</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>585.177607</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>13.92092679276221</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>439.664789</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>10.26260146007582</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>445.512907</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>6.381477219046109</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>243.447571</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>5.936266496071385</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-5.767691434119115</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,507 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.811611</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>1.997722341870888</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.649612</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>7.780479549430404</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>0.543943</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>8.463779707050959</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.981115</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>23.77758518817959</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>287.7097378425158</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF LEATHER OR OF COMPOSITION LEATHER, N.E.S.; SADDLERY AND HARNESS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>1.452577249808028</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.616964</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>14.9522880274382</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.872345</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.147214732574299</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.030505</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>12.34247993892628</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.6557460000000001</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>10.2034398600218</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.564522</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>13.68134209098986</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>114.0570670205707</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.1563784919667357</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.548975</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>13.3045563758386</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>30.567631</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>75.24003418727094</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>4.147468</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>49.67471345344147</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.514383</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>8.003824660032381</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>0.501596</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>12.15631360243206</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>108.6497144354641</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>2.516573397139907</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>10.34550283092168</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>163.9399504120989</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>0.767097</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1.888154319350197</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>0.804542</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>9.63609443430515</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>0.91945</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>14.30668700883733</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>6.928208834336916</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-53.09451224514575</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>0.78251</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.926092314837266</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.1502789527775854</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>2.181222611117493</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.609633809944118</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.1311916707626886</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.275766673286021</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.616442459327977</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.4628936231677532</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>20.33012033012034</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>6.772324</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>16.66959043333372</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>1.61061</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>19.29046595061068</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>3.478782</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>54.1300182130373</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.6004530056337305</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-98.8656539841752</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1800,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>3069.819832</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>73.74135719427645</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>3296.047235</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>77.08616050697982</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>5977.771105</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>85.70382209679491</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>3373.524429</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>82.34343613252992</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>15.00622239157512</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>46.8961</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1.126509779196224</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>109.016009</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>2.54960714105311</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>104.659892</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>1.500517936716443</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>135.183714</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>3.299662342512472</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>39.97388634097212</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>262.778331</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.312302294484234</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>212.205782</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.962953442553189</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>224.551629</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3.219416154503543</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>126.136778</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.078838153332994</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-10.40079238011373</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>79.28164099999999</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.904455677491822</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>34.255562</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.8011504575991911</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>44.329943</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.6355622324272751</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>60.022178</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.465064944599618</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>183.2706616197048</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>43.197276</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.037658863927668</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>59.450158</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.390387969289315</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>46.141129</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.6615293629850795</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>38.221024</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.9329265327409588</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>58.11057383086114</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>33.540136</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.8056808817699405</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>47.970476</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.121907408748717</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>44.434621</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.6370630099799559</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>32.17974</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.7854664820781763</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>28.36963541332784</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>44.222144</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.062277623790115</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>36.166907</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.8458519551656281</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>41.380177</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.5932711817914087</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>29.582443</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.7220697691929198</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>23.78305426074585</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>12.704792</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.305186837085684</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>17.257397</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.4036066173289147</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>11.730902</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.1681869580456168</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>21.5976</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.5271699178840978</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>183.5669278529511</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>3.287054</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.07895962512332716</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2.900379</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.06783248697134453</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>8.264424999999999</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.1184877770478474</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>21.071613</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.5143312449020024</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>341.4301031028045</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>15.824688</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.3801310937312298</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>25.248635</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.5905013464384252</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>18.71991</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.2683889710942708</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>18.317827</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.4471148347689146</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>60.59509821748104</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>551.4034339999999</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>13.2454801291233</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>435.277807</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.18004066787234</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>452.934023</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>6.493754318613646</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>241.058032</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>5.883919645457932</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-7.472259482114407</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2258,449 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>137.554633</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>39.03374416381823</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>336.369204</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>61.92720426932095</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>368.231169</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>62.5458774329514</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>497.902804</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>81.05193588015672</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>48.24137460156632</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>25.019379</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>7.099724798245117</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>27.330493</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>5.031676511004991</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>69.695909</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>11.8381933656793</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>44.512748</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>7.246081700607523</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-2.52590995237707</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>GLASSWARE</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>38.700838</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>10.98209908653076</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>24.872065</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>4.579067975125415</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>12.323771</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>2.093253193560486</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>10.475799</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>1.705320359757223</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>42.72030724418909</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>3.487322</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.9895939656562124</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>10.357171</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.906805487964014</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>17.57716</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.985567185865725</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>9.901768000000001</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.611875768902454</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>210.5876743803078</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>49.790629</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>14.12903827195401</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>22.461112</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.135199817341471</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>17.246948</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.92947905151529</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>6.817348</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.10977333031592</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-40.2191216438876</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>10.206667</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.89633594851935</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>4.359854</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.802670298088335</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>6.702203</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.091029260023597</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>7.032092</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.995489894291185</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>6.068643</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.117266652920416</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>10.575735</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.796340670643702</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>5.365354</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.8734080725971215</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>24.13154716005066</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>POTTERY</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>2.123143</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.3908809388328512</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>4.506503</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.7335985844332258</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>4.367402</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.239333409646391</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>8.647040000000001</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.591962064413569</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>32.00291</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>5.43585186390828</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>3.380021</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.5502223389077021</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-3.659518893448088</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>0.670173</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.1901743391478392</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>2.30109</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.4236418458572436</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>6.749787</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.146484561714353</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>3.287041</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.535086434997153</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-5.880330064717565</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>75.570144</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>21.4444661221909</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>98.278907</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>18.09362413913075</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>54.119423</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>9.192450511162599</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>21.449351</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>3.491668269301362</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-48.78084453558414</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
